--- a/Data/210520 Full-Text Screening - For Reporting.xlsx
+++ b/Data/210520 Full-Text Screening - For Reporting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Google Drive\Research\Projects\Body Dissatisfaction Meta-Analysis\BD-depression-meta-analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D3D943-984C-4B92-BD21-9DD3700196FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B9AE1F-E855-4F8B-8491-67111519B368}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -342,6 +342,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -354,7 +356,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,9 +576,9 @@
   </sheetPr>
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M49" sqref="M49"/>
+      <selection pane="topRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -590,22 +591,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="D1" s="14" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="15" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -643,8 +644,8 @@
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="12"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1544,7 +1545,7 @@
       <c r="L24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="M24" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1927,35 +1928,35 @@
       <c r="C34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>65</v>
+      <c r="D34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2569,7 +2570,7 @@
       <c r="L49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M49" s="17" t="s">
+      <c r="M49" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2622,43 +2623,43 @@
       <c r="C51" s="6"/>
       <c r="D51" s="7">
         <f>COUNTIF(D3:D50, "Yes")</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E51" s="7">
         <f>COUNTIF(E3:E50, "No")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F51" s="7">
         <f t="shared" ref="F51:K51" si="0">COUNTIF(F3:F50, "Yes")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J51" s="7">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L51" s="7" t="str">
         <f>COUNTIF(L3:L50, "Yes") &amp; " (" &amp; ROUND(100 * COUNTIF(L3:L50, "Yes") / (COUNTIF(L3:L50, "Yes") + COUNTIF(L3:L50, "No")),0) &amp; "%)"</f>
-        <v>17 (40%)</v>
+        <v>18 (42%)</v>
       </c>
       <c r="M51" s="7">
         <f>COUNTIF(M3:M50, "Included")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
